--- a/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
+++ b/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gramática G e suas produções" sheetId="1" state="visible" r:id="rId2"/>
@@ -1300,16 +1300,16 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.3010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,39 +1847,40 @@
   </sheetPr>
   <dimension ref="1:94"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+      <selection pane="bottomRight" activeCell="AF4" activeCellId="1" sqref="7:7 AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="32" min="11" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="54" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="12.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="32" min="11" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.6581632653061"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="24.3775510204082"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="17.7397959183673"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="21.3214285714286"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="11.6020408163265"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="9.37755102040816"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.7397959183673"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="54" style="0" width="9.89285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7899,38 +7900,39 @@
   </sheetPr>
   <dimension ref="1:95"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE5" activeCellId="0" sqref="AE5"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="31" min="10" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="35" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="12.6173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="31" min="10" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="38" min="35" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.6581632653061"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="24.3775510204082"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.7397959183673"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="21.3214285714286"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="11.6020408163265"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="9.37755102040816"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="17.7397959183673"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="13.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.89285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
+++ b/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Gramática G e suas produções" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
   <si>
     <t xml:space="preserve">Produção</t>
   </si>
@@ -33,31 +33,49 @@
     <t xml:space="preserve">Qtde. Elementos</t>
   </si>
   <si>
+    <t xml:space="preserve">Classe Java</t>
+  </si>
+  <si>
     <t xml:space="preserve">S → PGM</t>
   </si>
   <si>
     <t xml:space="preserve">PGM → program { STMT_LIST }</t>
   </si>
   <si>
+    <t xml:space="preserve">Pgm</t>
+  </si>
+  <si>
     <t xml:space="preserve">STMT_LIST → STMT STMT_LIST</t>
   </si>
   <si>
+    <t xml:space="preserve">MultiStmtList</t>
+  </si>
+  <si>
     <t xml:space="preserve">STMT_LIST → STMT</t>
   </si>
   <si>
-    <t xml:space="preserve">STMT → CTRL_FLUXO</t>
+    <t xml:space="preserve">SingleStmtList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMT → CTRL_FLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CtrlFluxStmt</t>
   </si>
   <si>
     <t xml:space="preserve">STMT → FUNCTION ;</t>
   </si>
   <si>
-    <t xml:space="preserve">CTRL_FLUXO → IF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRL_FLUXO → FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRL_FLUXO → WHILE</t>
+    <t xml:space="preserve">FunctionStmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL_FLUX → IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL_FLUX → FOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL_FLUX → WHILE</t>
   </si>
   <si>
     <t xml:space="preserve">IF → if ( EXP_BOOL ) { STMT_LIST } ELSE</t>
@@ -78,9 +96,15 @@
     <t xml:space="preserve">FUNCTION → id ( PARAMS )</t>
   </si>
   <si>
+    <t xml:space="preserve">ParamFunction</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUNCTION → id ( )</t>
   </si>
   <si>
+    <t xml:space="preserve">NoParamFunction</t>
+  </si>
+  <si>
     <t xml:space="preserve">PARAMS → VAR</t>
   </si>
   <si>
@@ -279,7 +303,7 @@
     <t xml:space="preserve">STMT</t>
   </si>
   <si>
-    <t xml:space="preserve">CTRL_FLUXO</t>
+    <t xml:space="preserve">CTRL_FLUX</t>
   </si>
   <si>
     <t xml:space="preserve">IF</t>
@@ -1298,18 +1322,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.3724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,10 +1347,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>0</v>
@@ -1333,10 +1361,11 @@
       <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -1344,10 +1373,13 @@
       <c r="C3" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2</v>
@@ -1355,10 +1387,13 @@
       <c r="C4" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>3</v>
@@ -1366,10 +1401,13 @@
       <c r="C5" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>4</v>
@@ -1377,10 +1415,13 @@
       <c r="C6" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>5</v>
@@ -1388,10 +1429,13 @@
       <c r="C7" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>6</v>
@@ -1399,10 +1443,11 @@
       <c r="C8" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>7</v>
@@ -1410,10 +1455,11 @@
       <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>8</v>
@@ -1421,10 +1467,11 @@
       <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>9</v>
@@ -1432,10 +1479,11 @@
       <c r="C11" s="3" t="n">
         <v>8</v>
       </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>10</v>
@@ -1443,10 +1491,11 @@
       <c r="C12" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>11</v>
@@ -1454,10 +1503,11 @@
       <c r="C13" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>12</v>
@@ -1465,10 +1515,11 @@
       <c r="C14" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>13</v>
@@ -1476,10 +1527,11 @@
       <c r="C15" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>14</v>
@@ -1487,10 +1539,13 @@
       <c r="C16" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15</v>
@@ -1498,10 +1553,13 @@
       <c r="C17" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>16</v>
@@ -1509,10 +1567,11 @@
       <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>17</v>
@@ -1520,10 +1579,11 @@
       <c r="C19" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>18</v>
@@ -1531,10 +1591,11 @@
       <c r="C20" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>19</v>
@@ -1542,10 +1603,11 @@
       <c r="C21" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>20</v>
@@ -1553,10 +1615,11 @@
       <c r="C22" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>21</v>
@@ -1564,10 +1627,11 @@
       <c r="C23" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>22</v>
@@ -1575,10 +1639,11 @@
       <c r="C24" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>23</v>
@@ -1586,10 +1651,11 @@
       <c r="C25" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>24</v>
@@ -1597,10 +1663,11 @@
       <c r="C26" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>25</v>
@@ -1608,10 +1675,11 @@
       <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>26</v>
@@ -1619,10 +1687,11 @@
       <c r="C28" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>27</v>
@@ -1630,10 +1699,11 @@
       <c r="C29" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>28</v>
@@ -1641,10 +1711,11 @@
       <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>29</v>
@@ -1652,10 +1723,11 @@
       <c r="C31" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>30</v>
@@ -1663,10 +1735,11 @@
       <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>31</v>
@@ -1674,10 +1747,11 @@
       <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>32</v>
@@ -1685,10 +1759,11 @@
       <c r="C34" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>33</v>
@@ -1696,10 +1771,11 @@
       <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>34</v>
@@ -1707,10 +1783,11 @@
       <c r="C36" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>35</v>
@@ -1718,10 +1795,11 @@
       <c r="C37" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>36</v>
@@ -1729,10 +1807,11 @@
       <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>37</v>
@@ -1740,10 +1819,11 @@
       <c r="C39" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>38</v>
@@ -1751,10 +1831,11 @@
       <c r="C40" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>39</v>
@@ -1762,10 +1843,11 @@
       <c r="C41" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>40</v>
@@ -1773,10 +1855,11 @@
       <c r="C42" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>41</v>
@@ -1784,10 +1867,11 @@
       <c r="C43" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>42</v>
@@ -1795,10 +1879,11 @@
       <c r="C44" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>43</v>
@@ -1806,10 +1891,11 @@
       <c r="C45" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>44</v>
@@ -1817,10 +1903,11 @@
       <c r="C46" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>45</v>
@@ -1828,6 +1915,7 @@
       <c r="C47" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1847,46 +1935,45 @@
   </sheetPr>
   <dimension ref="1:94"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF4" activeCellId="1" sqref="7:7 AF4"/>
+      <selection pane="bottomRight" activeCell="AI3" activeCellId="0" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="12.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="32" min="11" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.4132653061224"/>
-    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.6581632653061"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="24.3775510204082"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="17.7397959183673"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="21.3214285714286"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="11.6020408163265"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="9.37755102040816"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.7397959183673"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="54" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1836734693878"/>
+    <col collapsed="false" hidden="false" max="32" min="11" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.6938775510204"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.7908163265306"/>
+    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.6938775510204"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="16.8265306122449"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="20.5"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="10.8367346938776"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.6326530612245"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="54" style="0" width="9.47448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1917,7 +2004,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1945,166 +2032,166 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -2123,7 +2210,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -2147,7 +2234,7 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -2177,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2251,7 +2338,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -2301,20 +2388,20 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -2336,26 +2423,26 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
@@ -2392,7 +2479,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -2499,20 +2586,20 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2534,26 +2621,26 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
@@ -2694,7 +2781,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2999,7 +3086,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3059,7 +3146,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -3119,7 +3206,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -3179,7 +3266,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -3235,16 +3322,16 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -3268,7 +3355,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
@@ -3283,7 +3370,7 @@
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3453,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -3594,13 +3681,13 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3627,23 +3714,23 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AR27" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW27" s="9"/>
       <c r="AX27" s="9"/>
@@ -3651,7 +3738,7 @@
       <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +3748,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -3730,13 +3817,13 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -3763,23 +3850,23 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AR29" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AS29" s="9"/>
       <c r="AT29" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
@@ -3787,7 +3874,7 @@
       <c r="AZ29" s="9"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,11 +3904,11 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3868,13 +3955,13 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -3901,21 +3988,21 @@
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AS31" s="9"/>
       <c r="AT31" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
@@ -3923,7 +4010,7 @@
       <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +4035,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -4005,7 +4092,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
@@ -4055,20 +4142,20 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -4090,26 +4177,26 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM34" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
@@ -4146,7 +4233,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
@@ -4196,7 +4283,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -4228,7 +4315,7 @@
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
@@ -4267,7 +4354,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4317,20 +4404,20 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -4352,26 +4439,26 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM38" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN38" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
@@ -4408,7 +4495,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
@@ -4534,22 +4621,22 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
@@ -4570,7 +4657,7 @@
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
@@ -4942,13 +5029,13 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -4975,21 +5062,21 @@
       <c r="AL48" s="9"/>
       <c r="AM48" s="9"/>
       <c r="AN48" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AS48" s="9"/>
       <c r="AT48" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW48" s="9"/>
       <c r="AX48" s="9"/>
@@ -4997,7 +5084,7 @@
       <c r="AZ48" s="9"/>
       <c r="BA48" s="9"/>
       <c r="BB48" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5109,7 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -5079,7 +5166,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -5129,20 +5216,20 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -5164,26 +5251,26 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AH51" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI51" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ51" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK51" s="9"/>
       <c r="AL51" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM51" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN51" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
@@ -5220,7 +5307,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
@@ -5274,10 +5361,10 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -5309,7 +5396,7 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
@@ -5322,7 +5409,7 @@
       <c r="AY53" s="9"/>
       <c r="AZ53" s="9"/>
       <c r="BA53" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="BB53" s="9"/>
     </row>
@@ -5349,10 +5436,10 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
@@ -5378,7 +5465,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AT54" s="9"/>
       <c r="AU54" s="9"/>
@@ -5386,7 +5473,7 @@
       <c r="AW54" s="9"/>
       <c r="AX54" s="9"/>
       <c r="AY54" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AZ54" s="9"/>
       <c r="BA54" s="9"/>
@@ -5417,10 +5504,10 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -5446,14 +5533,14 @@
       <c r="AS55" s="9"/>
       <c r="AT55" s="9"/>
       <c r="AU55" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
       <c r="AX55" s="9"/>
       <c r="AY55" s="9"/>
       <c r="AZ55" s="9" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
@@ -5764,13 +5851,13 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -5797,7 +5884,7 @@
       <c r="AL61" s="9"/>
       <c r="AM61" s="9"/>
       <c r="AN61" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
@@ -5805,11 +5892,11 @@
       <c r="AR61" s="9"/>
       <c r="AS61" s="9"/>
       <c r="AT61" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AU61" s="9"/>
       <c r="AV61" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW61" s="9"/>
       <c r="AX61" s="9"/>
@@ -5817,7 +5904,7 @@
       <c r="AZ61" s="9"/>
       <c r="BA61" s="9"/>
       <c r="BB61" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,10 +5930,10 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -5872,7 +5959,7 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9"/>
@@ -5880,7 +5967,7 @@
       <c r="AW62" s="9"/>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9"/>
@@ -6076,13 +6163,13 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
@@ -6109,7 +6196,7 @@
       <c r="AL66" s="9"/>
       <c r="AM66" s="9"/>
       <c r="AN66" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
@@ -6119,7 +6206,7 @@
       <c r="AT66" s="9"/>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AW66" s="9"/>
       <c r="AX66" s="9"/>
@@ -6127,7 +6214,7 @@
       <c r="AZ66" s="9"/>
       <c r="BA66" s="9"/>
       <c r="BB66" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,10 +6242,10 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="W67" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -6189,7 +6276,7 @@
       <c r="AX67" s="9"/>
       <c r="AY67" s="9"/>
       <c r="AZ67" s="9" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
@@ -6442,13 +6529,13 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
@@ -6475,23 +6562,23 @@
       <c r="AL72" s="9"/>
       <c r="AM72" s="9"/>
       <c r="AN72" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
       <c r="AQ72" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AR72" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AS72" s="9"/>
       <c r="AT72" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU72" s="9"/>
       <c r="AV72" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW72" s="9"/>
       <c r="AX72" s="9"/>
@@ -6499,7 +6586,7 @@
       <c r="AZ72" s="9"/>
       <c r="BA72" s="9"/>
       <c r="BB72" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6655,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -6627,7 +6714,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -6708,22 +6795,22 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Z76" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AA76" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AB76" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AD76" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
@@ -6744,7 +6831,7 @@
       <c r="AU76" s="9"/>
       <c r="AV76" s="9"/>
       <c r="AW76" s="9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AX76" s="9"/>
       <c r="AY76" s="9"/>
@@ -6768,13 +6855,13 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -6801,21 +6888,21 @@
       <c r="AL77" s="9"/>
       <c r="AM77" s="9"/>
       <c r="AN77" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
       <c r="AR77" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AS77" s="9"/>
       <c r="AT77" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU77" s="9"/>
       <c r="AV77" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
@@ -6823,7 +6910,7 @@
       <c r="AZ77" s="9"/>
       <c r="BA77" s="9"/>
       <c r="BB77" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,7 +6921,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -6893,7 +6980,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -6973,7 +7060,7 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -7013,7 +7100,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -7089,16 +7176,16 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -7127,13 +7214,13 @@
       <c r="AV82" s="9"/>
       <c r="AW82" s="9"/>
       <c r="AX82" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AY82" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AZ82" s="9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
@@ -7270,13 +7357,13 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
@@ -7303,21 +7390,21 @@
       <c r="AL85" s="9"/>
       <c r="AM85" s="9"/>
       <c r="AN85" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
       <c r="AR85" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AS85" s="9"/>
       <c r="AT85" s="9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AU85" s="9"/>
       <c r="AV85" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AW85" s="9"/>
       <c r="AX85" s="9"/>
@@ -7325,7 +7412,7 @@
       <c r="AZ85" s="9"/>
       <c r="BA85" s="9"/>
       <c r="BB85" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7350,7 +7437,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
@@ -7407,7 +7494,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -7457,20 +7544,20 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -7492,26 +7579,26 @@
       <c r="AE88" s="9"/>
       <c r="AF88" s="9"/>
       <c r="AG88" s="9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AH88" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI88" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ88" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AK88" s="9"/>
       <c r="AL88" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AM88" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AN88" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
@@ -7548,7 +7635,7 @@
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
@@ -7900,45 +7987,44 @@
   </sheetPr>
   <dimension ref="1:95"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="7:7"/>
+      <selection pane="bottomRight" activeCell="AH4" activeCellId="0" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="12.6173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="31" min="10" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.4132653061224"/>
-    <col collapsed="false" hidden="false" max="38" min="35" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.6581632653061"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="24.3775510204082"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.7397959183673"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="21.3214285714286"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.89285714285714"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="11.6020408163265"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="9.37755102040816"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="17.7397959183673"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="13.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.89285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="4" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1836734693878"/>
+    <col collapsed="false" hidden="false" max="31" min="10" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.6938775510204"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.7908163265306"/>
+    <col collapsed="false" hidden="false" max="38" min="35" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.6938775510204"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.8265306122449"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.5"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.8367346938776"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="16.6326530612245"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="13.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.47448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -7968,7 +8054,7 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -8155,163 +8241,163 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -8330,7 +8416,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8354,7 +8440,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -8384,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -8456,7 +8542,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -8505,20 +8591,20 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -8540,26 +8626,26 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
@@ -8595,7 +8681,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -8640,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8702,26 +8788,26 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -8739,26 +8825,26 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH10" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AG10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH10" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="AI10" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
@@ -8794,7 +8880,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -8842,26 +8928,26 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -8908,7 +8994,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -8968,26 +9054,26 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -9035,26 +9121,26 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -9102,26 +9188,26 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -9169,26 +9255,26 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -9248,7 +9334,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -9307,7 +9393,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
@@ -9366,7 +9452,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -9425,7 +9511,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
@@ -9480,16 +9566,16 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -9513,7 +9599,7 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
@@ -9528,7 +9614,7 @@
       <c r="AY22" s="9"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,7 +9624,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -9546,10 +9632,10 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -9558,38 +9644,38 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -9637,7 +9723,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -9696,7 +9782,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -9741,7 +9827,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -9749,10 +9835,10 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -9761,38 +9847,38 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="W26" s="11"/>
       <c r="X26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -9826,7 +9912,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -9834,10 +9920,10 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -9846,38 +9932,38 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="W27" s="11"/>
       <c r="X27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -9919,13 +10005,13 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -9952,23 +10038,23 @@
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AR28" s="9"/>
       <c r="AS28" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT28" s="9"/>
       <c r="AU28" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV28" s="9"/>
       <c r="AW28" s="9"/>
@@ -9976,7 +10062,7 @@
       <c r="AY28" s="9"/>
       <c r="AZ28" s="9"/>
       <c r="BA28" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,7 +10071,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -10053,13 +10139,13 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -10086,23 +10172,23 @@
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AQ30" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AR30" s="9"/>
       <c r="AS30" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV30" s="9"/>
       <c r="AW30" s="9"/>
@@ -10110,7 +10196,7 @@
       <c r="AY30" s="9"/>
       <c r="AZ30" s="9"/>
       <c r="BA30" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,11 +10225,11 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -10189,13 +10275,13 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -10222,21 +10308,21 @@
       <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AR32" s="9"/>
       <c r="AS32" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AU32" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
@@ -10244,7 +10330,7 @@
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
       <c r="BA32" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10268,7 +10354,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -10324,7 +10410,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -10373,20 +10459,20 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10408,26 +10494,26 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AH35" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL35" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM35" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
@@ -10463,7 +10549,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
@@ -10511,28 +10597,28 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="S37" s="9"/>
@@ -10553,7 +10639,7 @@
       <c r="AH37" s="9"/>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
@@ -10591,7 +10677,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -10640,20 +10726,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -10675,26 +10761,26 @@
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL39" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM39" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
@@ -10730,7 +10816,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -10778,26 +10864,26 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -10864,22 +10950,22 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -10900,7 +10986,7 @@
       <c r="AT42" s="9"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AW42" s="9"/>
       <c r="AX42" s="9"/>
@@ -10923,13 +11009,13 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -10986,13 +11072,13 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -11049,13 +11135,13 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -11112,13 +11198,13 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -11175,13 +11261,13 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -11238,13 +11324,13 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -11301,13 +11387,13 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -11334,21 +11420,21 @@
       <c r="AK49" s="9"/>
       <c r="AL49" s="9"/>
       <c r="AM49" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AR49" s="9"/>
       <c r="AS49" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
@@ -11356,7 +11442,7 @@
       <c r="AY49" s="9"/>
       <c r="AZ49" s="9"/>
       <c r="BA49" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11380,7 +11466,7 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -11436,7 +11522,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -11485,20 +11571,20 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -11520,26 +11606,26 @@
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AG52" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AI52" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL52" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM52" s="9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
@@ -11575,7 +11661,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
@@ -11628,10 +11714,10 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -11640,7 +11726,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -11665,7 +11751,7 @@
       <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="9"/>
@@ -11678,7 +11764,7 @@
       <c r="AX54" s="9"/>
       <c r="AY54" s="9"/>
       <c r="AZ54" s="9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BA54" s="9"/>
     </row>
@@ -11689,7 +11775,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -11697,10 +11783,10 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -11709,34 +11795,34 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AB55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AC55" s="9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -11753,7 +11839,7 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AS55" s="9"/>
       <c r="AT55" s="9"/>
@@ -11761,7 +11847,7 @@
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
       <c r="AX55" s="9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AY55" s="9"/>
       <c r="AZ55" s="9"/>
@@ -11774,7 +11860,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -11782,10 +11868,10 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -11794,38 +11880,38 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Y56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AA56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AB56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AC56" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -11844,14 +11930,14 @@
       <c r="AR56" s="9"/>
       <c r="AS56" s="9"/>
       <c r="AT56" s="9" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
       <c r="AX56" s="9"/>
       <c r="AY56" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AZ56" s="9"/>
       <c r="BA56" s="9"/>
@@ -11863,7 +11949,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -11871,10 +11957,10 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -11883,38 +11969,38 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="W57" s="11"/>
       <c r="X57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AA57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
@@ -11948,7 +12034,7 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -11956,10 +12042,10 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -11968,38 +12054,38 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="W58" s="11"/>
       <c r="X58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Z58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AA58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
@@ -12041,13 +12127,13 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -12104,13 +12190,13 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -12159,7 +12245,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -12167,10 +12253,10 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -12179,7 +12265,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -12187,22 +12273,22 @@
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Y61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AA61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AB61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
@@ -12244,13 +12330,13 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -12277,7 +12363,7 @@
       <c r="AK62" s="9"/>
       <c r="AL62" s="9"/>
       <c r="AM62" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
@@ -12285,11 +12371,11 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
@@ -12297,7 +12383,7 @@
       <c r="AY62" s="9"/>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,7 +12393,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -12315,10 +12401,10 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -12327,34 +12413,34 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Y63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AA63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AB63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AC63" s="9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
@@ -12371,7 +12457,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AS63" s="9"/>
       <c r="AT63" s="9"/>
@@ -12379,7 +12465,7 @@
       <c r="AV63" s="9"/>
       <c r="AW63" s="9"/>
       <c r="AX63" s="9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AY63" s="9"/>
       <c r="AZ63" s="9"/>
@@ -12392,7 +12478,7 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -12400,10 +12486,10 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -12418,22 +12504,22 @@
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AB64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AC64" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
@@ -12475,13 +12561,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
@@ -12538,13 +12624,13 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -12601,13 +12687,13 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -12634,7 +12720,7 @@
       <c r="AK67" s="9"/>
       <c r="AL67" s="9"/>
       <c r="AM67" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -12644,7 +12730,7 @@
       <c r="AS67" s="9"/>
       <c r="AT67" s="9"/>
       <c r="AU67" s="9" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AV67" s="9"/>
       <c r="AW67" s="9"/>
@@ -12652,7 +12738,7 @@
       <c r="AY67" s="9"/>
       <c r="AZ67" s="9"/>
       <c r="BA67" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12662,7 +12748,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -12670,10 +12756,10 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -12682,38 +12768,38 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="W68" s="9"/>
       <c r="X68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Y68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Z68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AA68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AB68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AC68" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
@@ -12737,7 +12823,7 @@
       <c r="AW68" s="9"/>
       <c r="AX68" s="9"/>
       <c r="AY68" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AZ68" s="9"/>
       <c r="BA68" s="9"/>
@@ -12749,7 +12835,7 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -12757,10 +12843,10 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -12770,31 +12856,31 @@
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Y69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AB69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AC69" s="11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
@@ -12836,13 +12922,13 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -12899,13 +12985,13 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -12968,7 +13054,7 @@
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
@@ -13021,13 +13107,13 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -13054,23 +13140,23 @@
       <c r="AK73" s="9"/>
       <c r="AL73" s="9"/>
       <c r="AM73" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
       <c r="AP73" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AQ73" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AR73" s="9"/>
       <c r="AS73" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT73" s="9"/>
       <c r="AU73" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV73" s="9"/>
       <c r="AW73" s="9"/>
@@ -13078,7 +13164,7 @@
       <c r="AY73" s="9"/>
       <c r="AZ73" s="9"/>
       <c r="BA73" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13102,7 +13188,7 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
@@ -13147,7 +13233,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -13205,7 +13291,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -13285,22 +13371,22 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AA77" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AB77" s="9" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
@@ -13321,7 +13407,7 @@
       <c r="AT77" s="9"/>
       <c r="AU77" s="9"/>
       <c r="AV77" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
@@ -13344,13 +13430,13 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -13377,21 +13463,21 @@
       <c r="AK78" s="9"/>
       <c r="AL78" s="9"/>
       <c r="AM78" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
       <c r="AQ78" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AR78" s="9"/>
       <c r="AS78" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AT78" s="9"/>
       <c r="AU78" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AV78" s="9"/>
       <c r="AW78" s="9"/>
@@ -13399,7 +13485,7 @@
       <c r="AY78" s="9"/>
       <c r="AZ78" s="9"/>
       <c r="BA78" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13409,7 +13495,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -13467,7 +13553,7 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -13546,7 +13632,7 @@
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -13585,7 +13671,7 @@
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -13660,16 +13746,16 @@
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T83" s="9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -13698,13 +13784,13 @@
       <c r="AU83" s="9"/>
       <c r="AV83" s="9"/>
       <c r="AW83" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AX83" s="9" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AY83" s="9" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AZ83" s="9"/>
       <c r="BA83" s="9"/>
@@ -13724,13 +13810,13 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -13787,13 +13873,13 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -13850,13 +13936,13 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -13883,21 +13969,21 @@
       <c r="AK86" s="9"/>
       <c r="AL86" s="9"/>
       <c r="AM86" s="9" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AR86" s="9"/>
       <c r="AS86" s="9" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AT86" s="9"/>
       <c r="AU86" s="9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV86" s="9"/>
       <c r="AW86" s="9"/>
@@ -13905,7 +13991,7 @@
       <c r="AY86" s="9"/>
       <c r="AZ86" s="9"/>
       <c r="BA86" s="9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,7 +14015,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -13985,7 +14071,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
@@ -14034,20 +14120,20 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -14069,26 +14155,26 @@
       <c r="AD89" s="9"/>
       <c r="AE89" s="9"/>
       <c r="AF89" s="9" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AG89" s="9" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AH89" s="9" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AI89" s="9" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AJ89" s="9"/>
       <c r="AK89" s="9" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AL89" s="9" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AM89" s="9" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
@@ -14124,7 +14210,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
@@ -14172,26 +14258,26 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
@@ -14238,7 +14324,7 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -14246,10 +14332,10 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
@@ -14258,38 +14344,38 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="U92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="V92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="W92" s="11"/>
       <c r="X92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Z92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AA92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AB92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AC92" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
@@ -14324,26 +14410,26 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
@@ -14390,7 +14476,7 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -14398,10 +14484,10 @@
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
@@ -14410,34 +14496,34 @@
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Y94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Z94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AA94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AB94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AC94" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
@@ -14472,26 +14558,26 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>

--- a/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
+++ b/MySimpleCompiler_Beta/Docs_and_diagrams/Tabela_Transições_Analisador_Sintatico.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="376">
   <si>
     <t xml:space="preserve">Produção</t>
   </si>
@@ -72,27 +72,51 @@
     <t xml:space="preserve">CTRL_FLUX → IF</t>
   </si>
   <si>
+    <t xml:space="preserve">IfCtrlFlux</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTRL_FLUX → FOR</t>
   </si>
   <si>
+    <t xml:space="preserve">ForCtrlFLux</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTRL_FLUX → WHILE</t>
   </si>
   <si>
+    <t xml:space="preserve">WhileCtrlFlux</t>
+  </si>
+  <si>
     <t xml:space="preserve">IF → if ( EXP_BOOL ) { STMT_LIST } ELSE</t>
   </si>
   <si>
+    <t xml:space="preserve">IfElse</t>
+  </si>
+  <si>
     <t xml:space="preserve">IF → if ( EXP_BOOL ) { STMT_LIST }</t>
   </si>
   <si>
+    <t xml:space="preserve">SimpleIf</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELSE → else { STMT_LIST }</t>
   </si>
   <si>
+    <t xml:space="preserve">Ekse</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOR → for ( i = EXP ; i OP_REL EXP ; i = i OP_ARIT EXP ) { STMT_LIST }</t>
   </si>
   <si>
+    <t xml:space="preserve">For</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHILE → while ( EXP_BOOL ) { STMT_LIST }</t>
   </si>
   <si>
+    <t xml:space="preserve">While</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUNCTION → id ( PARAMS )</t>
   </si>
   <si>
@@ -108,15 +132,27 @@
     <t xml:space="preserve">PARAMS → VAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Param</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXP_BOOL → EXP OP_REL EXP MORE_EXP_BOOL</t>
   </si>
   <si>
+    <t xml:space="preserve">MultiExpBool</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXP_BOOL → EXP OP_REL EXP</t>
   </si>
   <si>
+    <t xml:space="preserve">SingleExpBool</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORE_EXP_BOOL → OP_BOOL EXP_BOOL</t>
   </si>
   <si>
+    <t xml:space="preserve">MoreExpBool</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXP → TERM MORE_TERM</t>
   </si>
   <si>
@@ -126,36 +162,69 @@
     <t xml:space="preserve">MORE_TERM → OP_ARIT_LO TERM  MORE_TERM</t>
   </si>
   <si>
+    <t xml:space="preserve">MultiMoreTerm</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORE_TERM → OP_ARIT_LO TERM</t>
   </si>
   <si>
+    <t xml:space="preserve">SingleMoreTerm</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERM → FACTOR MORE_FACTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">MultiTerm</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERM → FACTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">SingleTerm</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORE_FACTOR → OP_ARIT_HI FACTOR MORE_FACTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">MultiMoreFactor</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORE_FACTOR → OP_ARIT_HI FACTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">SingleMoreFactor</t>
+  </si>
+  <si>
     <t xml:space="preserve">FACTOR → VAR</t>
   </si>
   <si>
+    <t xml:space="preserve">VarFactor</t>
+  </si>
+  <si>
     <t xml:space="preserve">FACTOR → FUNCTION</t>
   </si>
   <si>
+    <t xml:space="preserve">FunctionFactor</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_ARIT → OP_ARIT_LO</t>
   </si>
   <si>
+    <t xml:space="preserve">LowOpArit</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_ARIT → OP_ARIT_HI</t>
   </si>
   <si>
+    <t xml:space="preserve">HighOpArit</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_REL → RELOP_LT</t>
   </si>
   <si>
+    <t xml:space="preserve">OpRel</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_REL → RELOP_LTE</t>
   </si>
   <si>
@@ -174,22 +243,34 @@
     <t xml:space="preserve">OP_ARIT_LO → +</t>
   </si>
   <si>
+    <t xml:space="preserve">OpAritLo</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_ARIT_LO → -</t>
   </si>
   <si>
     <t xml:space="preserve">OP_ARIT_HI → *</t>
   </si>
   <si>
+    <t xml:space="preserve">OpAritHi</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_ARIT_HI → /</t>
   </si>
   <si>
     <t xml:space="preserve">OP_BOOL → and</t>
   </si>
   <si>
+    <t xml:space="preserve">OpBool</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP_BOOL → or</t>
   </si>
   <si>
     <t xml:space="preserve">VAR → num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var</t>
   </si>
   <si>
     <t xml:space="preserve">VAR → real</t>
@@ -1325,15 +1406,15 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3724489795918"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.3724489795918"/>
   </cols>
   <sheetData>
@@ -1443,11 +1524,13 @@
       <c r="C8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>7</v>
@@ -1455,11 +1538,13 @@
       <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>8</v>
@@ -1467,11 +1552,13 @@
       <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>9</v>
@@ -1479,11 +1566,13 @@
       <c r="C11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>10</v>
@@ -1491,11 +1580,13 @@
       <c r="C12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>11</v>
@@ -1503,11 +1594,13 @@
       <c r="C13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>12</v>
@@ -1515,11 +1608,13 @@
       <c r="C14" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>13</v>
@@ -1527,11 +1622,13 @@
       <c r="C15" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>14</v>
@@ -1540,12 +1637,12 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15</v>
@@ -1554,12 +1651,12 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>16</v>
@@ -1567,11 +1664,13 @@
       <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>17</v>
@@ -1579,11 +1678,13 @@
       <c r="C19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>18</v>
@@ -1591,11 +1692,13 @@
       <c r="C20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>19</v>
@@ -1603,11 +1706,13 @@
       <c r="C21" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>20</v>
@@ -1615,11 +1720,13 @@
       <c r="C22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>21</v>
@@ -1627,11 +1734,13 @@
       <c r="C23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>22</v>
@@ -1639,11 +1748,13 @@
       <c r="C24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>23</v>
@@ -1651,11 +1762,13 @@
       <c r="C25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>24</v>
@@ -1663,11 +1776,13 @@
       <c r="C26" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>25</v>
@@ -1675,11 +1790,13 @@
       <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>26</v>
@@ -1687,11 +1804,13 @@
       <c r="C28" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>27</v>
@@ -1699,11 +1818,13 @@
       <c r="C29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>28</v>
@@ -1711,11 +1832,13 @@
       <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>29</v>
@@ -1723,11 +1846,13 @@
       <c r="C31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>30</v>
@@ -1735,11 +1860,13 @@
       <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>31</v>
@@ -1747,11 +1874,13 @@
       <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>32</v>
@@ -1759,11 +1888,13 @@
       <c r="C34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>33</v>
@@ -1771,11 +1902,13 @@
       <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>34</v>
@@ -1783,11 +1916,13 @@
       <c r="C36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>35</v>
@@ -1795,11 +1930,13 @@
       <c r="C37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>36</v>
@@ -1807,11 +1944,13 @@
       <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>37</v>
@@ -1819,11 +1958,13 @@
       <c r="C39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>38</v>
@@ -1831,11 +1972,13 @@
       <c r="C40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>39</v>
@@ -1843,11 +1986,13 @@
       <c r="C41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>40</v>
@@ -1855,11 +2000,13 @@
       <c r="C42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>41</v>
@@ -1867,11 +2014,13 @@
       <c r="C43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>42</v>
@@ -1879,11 +2028,13 @@
       <c r="C44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>43</v>
@@ -1891,11 +2042,13 @@
       <c r="C45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>44</v>
@@ -1903,11 +2056,13 @@
       <c r="C46" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>45</v>
@@ -1915,7 +2070,9 @@
       <c r="C47" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1952,11 +2109,11 @@
     <col collapsed="false" hidden="false" max="32" min="11" style="0" width="9.47448979591837"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.7908163265306"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.1887755102041"/>
     <col collapsed="false" hidden="false" max="39" min="36" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.7959183673469"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.47448979591837"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="16.8265306122449"/>
@@ -1966,14 +2123,14 @@
     <col collapsed="false" hidden="false" max="49" min="49" style="0" width="10.8367346938776"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.6326530612245"/>
     <col collapsed="false" hidden="false" max="52" min="52" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.5459183673469"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="13.9336734693878"/>
     <col collapsed="false" hidden="false" max="1025" min="54" style="0" width="9.47448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2004,7 +2161,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -2032,166 +2189,166 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -2210,7 +2367,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -2234,7 +2391,7 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -2264,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2338,7 +2495,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -2388,20 +2545,20 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -2423,26 +2580,26 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
@@ -2479,7 +2636,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -2586,20 +2743,20 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2621,26 +2778,26 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
@@ -2781,7 +2938,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3086,7 +3243,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3146,7 +3303,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -3206,7 +3363,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -3266,7 +3423,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -3322,16 +3479,16 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -3355,7 +3512,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
@@ -3370,7 +3527,7 @@
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3610,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -3681,13 +3838,13 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3714,23 +3871,23 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="AR27" s="9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW27" s="9"/>
       <c r="AX27" s="9"/>
@@ -3738,7 +3895,7 @@
       <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,7 +3905,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -3817,13 +3974,13 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -3850,23 +4007,23 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="AR29" s="9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AS29" s="9"/>
       <c r="AT29" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
@@ -3874,7 +4031,7 @@
       <c r="AZ29" s="9"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,11 +4061,11 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3955,13 +4112,13 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -3988,21 +4145,21 @@
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AS31" s="9"/>
       <c r="AT31" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
@@ -4010,7 +4167,7 @@
       <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,7 +4192,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -4092,7 +4249,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
@@ -4142,20 +4299,20 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -4177,26 +4334,26 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM34" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
@@ -4233,7 +4390,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
@@ -4283,7 +4440,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -4315,7 +4472,7 @@
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
@@ -4354,7 +4511,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4404,20 +4561,20 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -4439,26 +4596,26 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM38" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN38" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
@@ -4495,7 +4652,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
@@ -4621,22 +4778,22 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
@@ -4657,7 +4814,7 @@
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
@@ -5029,13 +5186,13 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -5062,21 +5219,21 @@
       <c r="AL48" s="9"/>
       <c r="AM48" s="9"/>
       <c r="AN48" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="AS48" s="9"/>
       <c r="AT48" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW48" s="9"/>
       <c r="AX48" s="9"/>
@@ -5084,7 +5241,7 @@
       <c r="AZ48" s="9"/>
       <c r="BA48" s="9"/>
       <c r="BB48" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5266,7 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -5166,7 +5323,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -5216,20 +5373,20 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -5251,26 +5408,26 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AH51" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI51" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ51" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK51" s="9"/>
       <c r="AL51" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM51" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN51" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
@@ -5307,7 +5464,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
@@ -5361,10 +5518,10 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -5396,7 +5553,7 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
@@ -5409,7 +5566,7 @@
       <c r="AY53" s="9"/>
       <c r="AZ53" s="9"/>
       <c r="BA53" s="9" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="BB53" s="9"/>
     </row>
@@ -5436,10 +5593,10 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
@@ -5465,7 +5622,7 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="9" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="AT54" s="9"/>
       <c r="AU54" s="9"/>
@@ -5473,7 +5630,7 @@
       <c r="AW54" s="9"/>
       <c r="AX54" s="9"/>
       <c r="AY54" s="9" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="AZ54" s="9"/>
       <c r="BA54" s="9"/>
@@ -5504,10 +5661,10 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -5533,14 +5690,14 @@
       <c r="AS55" s="9"/>
       <c r="AT55" s="9"/>
       <c r="AU55" s="9" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
       <c r="AX55" s="9"/>
       <c r="AY55" s="9"/>
       <c r="AZ55" s="9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
@@ -5851,13 +6008,13 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -5884,7 +6041,7 @@
       <c r="AL61" s="9"/>
       <c r="AM61" s="9"/>
       <c r="AN61" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
@@ -5892,11 +6049,11 @@
       <c r="AR61" s="9"/>
       <c r="AS61" s="9"/>
       <c r="AT61" s="9" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AU61" s="9"/>
       <c r="AV61" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW61" s="9"/>
       <c r="AX61" s="9"/>
@@ -5904,7 +6061,7 @@
       <c r="AZ61" s="9"/>
       <c r="BA61" s="9"/>
       <c r="BB61" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,10 +6087,10 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -5959,7 +6116,7 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9"/>
@@ -5967,7 +6124,7 @@
       <c r="AW62" s="9"/>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9"/>
@@ -6163,13 +6320,13 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
@@ -6196,7 +6353,7 @@
       <c r="AL66" s="9"/>
       <c r="AM66" s="9"/>
       <c r="AN66" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
@@ -6206,7 +6363,7 @@
       <c r="AT66" s="9"/>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AW66" s="9"/>
       <c r="AX66" s="9"/>
@@ -6214,7 +6371,7 @@
       <c r="AZ66" s="9"/>
       <c r="BA66" s="9"/>
       <c r="BB66" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,10 +6399,10 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="W67" s="9" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -6276,7 +6433,7 @@
       <c r="AX67" s="9"/>
       <c r="AY67" s="9"/>
       <c r="AZ67" s="9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
@@ -6529,13 +6686,13 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
@@ -6562,23 +6719,23 @@
       <c r="AL72" s="9"/>
       <c r="AM72" s="9"/>
       <c r="AN72" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
       <c r="AQ72" s="9" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AR72" s="9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AS72" s="9"/>
       <c r="AT72" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU72" s="9"/>
       <c r="AV72" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW72" s="9"/>
       <c r="AX72" s="9"/>
@@ -6586,7 +6743,7 @@
       <c r="AZ72" s="9"/>
       <c r="BA72" s="9"/>
       <c r="BB72" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6812,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -6714,7 +6871,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -6795,22 +6952,22 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="Z76" s="9" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AA76" s="9" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="AB76" s="9" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AD76" s="9" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
@@ -6831,7 +6988,7 @@
       <c r="AU76" s="9"/>
       <c r="AV76" s="9"/>
       <c r="AW76" s="9" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AX76" s="9"/>
       <c r="AY76" s="9"/>
@@ -6855,13 +7012,13 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -6888,21 +7045,21 @@
       <c r="AL77" s="9"/>
       <c r="AM77" s="9"/>
       <c r="AN77" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
       <c r="AR77" s="9" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AS77" s="9"/>
       <c r="AT77" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU77" s="9"/>
       <c r="AV77" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
@@ -6910,7 +7067,7 @@
       <c r="AZ77" s="9"/>
       <c r="BA77" s="9"/>
       <c r="BB77" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +7078,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -6980,7 +7137,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -7060,7 +7217,7 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -7100,7 +7257,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -7176,16 +7333,16 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -7214,13 +7371,13 @@
       <c r="AV82" s="9"/>
       <c r="AW82" s="9"/>
       <c r="AX82" s="9" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="AY82" s="9" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AZ82" s="9" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
@@ -7357,13 +7514,13 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
@@ -7390,21 +7547,21 @@
       <c r="AL85" s="9"/>
       <c r="AM85" s="9"/>
       <c r="AN85" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
       <c r="AR85" s="9" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="AS85" s="9"/>
       <c r="AT85" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AU85" s="9"/>
       <c r="AV85" s="9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AW85" s="9"/>
       <c r="AX85" s="9"/>
@@ -7412,7 +7569,7 @@
       <c r="AZ85" s="9"/>
       <c r="BA85" s="9"/>
       <c r="BB85" s="9" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,7 +7594,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
@@ -7494,7 +7651,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -7544,20 +7701,20 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -7579,26 +7736,26 @@
       <c r="AE88" s="9"/>
       <c r="AF88" s="9"/>
       <c r="AG88" s="9" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="AH88" s="9" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="AI88" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AJ88" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AK88" s="9"/>
       <c r="AL88" s="9" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AM88" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AN88" s="9" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
@@ -7635,7 +7792,7 @@
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
@@ -8003,11 +8160,11 @@
     <col collapsed="false" hidden="false" max="31" min="10" style="0" width="9.47448979591837"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.7908163265306"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.1887755102041"/>
     <col collapsed="false" hidden="false" max="38" min="35" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="23.7959183673469"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="0" width="14.6938775510204"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.47448979591837"/>
     <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.8265306122449"/>
@@ -8017,14 +8174,14 @@
     <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.8367346938776"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="16.6326530612245"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="13.5459183673469"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="13.9336734693878"/>
     <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.47448979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -8054,7 +8211,7 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -8241,163 +8398,163 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -8416,7 +8573,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8440,7 +8597,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -8470,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -8542,7 +8699,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -8591,20 +8748,20 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -8626,26 +8783,26 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
@@ -8681,7 +8838,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -8726,7 +8883,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8788,26 +8945,26 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -8825,26 +8982,26 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
@@ -8880,7 +9037,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -8928,26 +9085,26 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -8994,7 +9151,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -9054,26 +9211,26 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -9121,26 +9278,26 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -9188,26 +9345,26 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -9255,26 +9412,26 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -9334,7 +9491,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -9393,7 +9550,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
@@ -9452,7 +9609,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -9511,7 +9668,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
@@ -9566,16 +9723,16 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -9599,7 +9756,7 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
@@ -9614,7 +9771,7 @@
       <c r="AY22" s="9"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9624,7 +9781,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -9632,10 +9789,10 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -9644,38 +9801,38 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -9723,7 +9880,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -9782,7 +9939,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -9827,7 +9984,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -9835,10 +9992,10 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -9847,38 +10004,38 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="W26" s="11"/>
       <c r="X26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -9912,7 +10069,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -9920,10 +10077,10 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -9932,38 +10089,38 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="W27" s="11"/>
       <c r="X27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -10005,13 +10162,13 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -10038,23 +10195,23 @@
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AR28" s="9"/>
       <c r="AS28" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT28" s="9"/>
       <c r="AU28" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV28" s="9"/>
       <c r="AW28" s="9"/>
@@ -10062,7 +10219,7 @@
       <c r="AY28" s="9"/>
       <c r="AZ28" s="9"/>
       <c r="BA28" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10071,7 +10228,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -10139,13 +10296,13 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -10172,23 +10329,23 @@
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AQ30" s="9" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AR30" s="9"/>
       <c r="AS30" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV30" s="9"/>
       <c r="AW30" s="9"/>
@@ -10196,7 +10353,7 @@
       <c r="AY30" s="9"/>
       <c r="AZ30" s="9"/>
       <c r="BA30" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10225,11 +10382,11 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -10275,13 +10432,13 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -10308,21 +10465,21 @@
       <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="AR32" s="9"/>
       <c r="AS32" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AU32" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
@@ -10330,7 +10487,7 @@
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
       <c r="BA32" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,7 +10511,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -10410,7 +10567,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -10459,20 +10616,20 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10494,26 +10651,26 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AH35" s="9" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL35" s="9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM35" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
@@ -10549,7 +10706,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
@@ -10597,28 +10754,28 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="S37" s="9"/>
@@ -10639,7 +10796,7 @@
       <c r="AH37" s="9"/>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
@@ -10677,7 +10834,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -10726,20 +10883,20 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -10761,26 +10918,26 @@
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL39" s="9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM39" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
@@ -10816,7 +10973,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -10864,26 +11021,26 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -10950,22 +11107,22 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -10986,7 +11143,7 @@
       <c r="AT42" s="9"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AW42" s="9"/>
       <c r="AX42" s="9"/>
@@ -11009,13 +11166,13 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -11072,13 +11229,13 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -11135,13 +11292,13 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -11198,13 +11355,13 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -11261,13 +11418,13 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -11324,13 +11481,13 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -11387,13 +11544,13 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -11420,21 +11577,21 @@
       <c r="AK49" s="9"/>
       <c r="AL49" s="9"/>
       <c r="AM49" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AR49" s="9"/>
       <c r="AS49" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
@@ -11442,7 +11599,7 @@
       <c r="AY49" s="9"/>
       <c r="AZ49" s="9"/>
       <c r="BA49" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11466,7 +11623,7 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -11522,7 +11679,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -11571,20 +11728,20 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -11606,26 +11763,26 @@
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AG52" s="9" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AI52" s="9" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL52" s="9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AM52" s="9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
@@ -11661,7 +11818,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
@@ -11714,10 +11871,10 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -11726,7 +11883,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -11751,7 +11908,7 @@
       <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="9"/>
@@ -11764,7 +11921,7 @@
       <c r="AX54" s="9"/>
       <c r="AY54" s="9"/>
       <c r="AZ54" s="9" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BA54" s="9"/>
     </row>
@@ -11775,7 +11932,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -11783,10 +11940,10 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -11795,34 +11952,34 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="AB55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="AC55" s="9" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -11839,7 +11996,7 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="AS55" s="9"/>
       <c r="AT55" s="9"/>
@@ -11847,7 +12004,7 @@
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
       <c r="AX55" s="9" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="AY55" s="9"/>
       <c r="AZ55" s="9"/>
@@ -11860,7 +12017,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -11868,10 +12025,10 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -11880,38 +12037,38 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Y56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="AA56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="AB56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="AC56" s="9" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -11930,14 +12087,14 @@
       <c r="AR56" s="9"/>
       <c r="AS56" s="9"/>
       <c r="AT56" s="9" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
       <c r="AX56" s="9"/>
       <c r="AY56" s="9" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AZ56" s="9"/>
       <c r="BA56" s="9"/>
@@ -11949,7 +12106,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -11957,10 +12114,10 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -11969,38 +12126,38 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="W57" s="11"/>
       <c r="X57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AA57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
@@ -12034,7 +12191,7 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -12042,10 +12199,10 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -12054,38 +12211,38 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="W58" s="11"/>
       <c r="X58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Z58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AA58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
@@ -12127,13 +12284,13 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -12190,13 +12347,13 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -12245,7 +12402,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -12253,10 +12410,10 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -12265,7 +12422,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -12273,22 +12430,22 @@
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="Y61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="AA61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="AB61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
@@ -12330,13 +12487,13 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -12363,7 +12520,7 @@
       <c r="AK62" s="9"/>
       <c r="AL62" s="9"/>
       <c r="AM62" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
@@ -12371,11 +12528,11 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="AT62" s="9"/>
       <c r="AU62" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
@@ -12383,7 +12540,7 @@
       <c r="AY62" s="9"/>
       <c r="AZ62" s="9"/>
       <c r="BA62" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12393,7 +12550,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -12401,10 +12558,10 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -12413,34 +12570,34 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Y63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AA63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AB63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AC63" s="9" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
@@ -12457,7 +12614,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AS63" s="9"/>
       <c r="AT63" s="9"/>
@@ -12465,7 +12622,7 @@
       <c r="AV63" s="9"/>
       <c r="AW63" s="9"/>
       <c r="AX63" s="9" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="AY63" s="9"/>
       <c r="AZ63" s="9"/>
@@ -12478,7 +12635,7 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -12486,10 +12643,10 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -12504,22 +12661,22 @@
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AB64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AC64" s="11" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
@@ -12561,13 +12718,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
@@ -12624,13 +12781,13 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -12687,13 +12844,13 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -12720,7 +12877,7 @@
       <c r="AK67" s="9"/>
       <c r="AL67" s="9"/>
       <c r="AM67" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -12730,7 +12887,7 @@
       <c r="AS67" s="9"/>
       <c r="AT67" s="9"/>
       <c r="AU67" s="9" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="AV67" s="9"/>
       <c r="AW67" s="9"/>
@@ -12738,7 +12895,7 @@
       <c r="AY67" s="9"/>
       <c r="AZ67" s="9"/>
       <c r="BA67" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12748,7 +12905,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -12756,10 +12913,10 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -12768,38 +12925,38 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="W68" s="9"/>
       <c r="X68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="Y68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="Z68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AA68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AB68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AC68" s="9" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
@@ -12823,7 +12980,7 @@
       <c r="AW68" s="9"/>
       <c r="AX68" s="9"/>
       <c r="AY68" s="9" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AZ68" s="9"/>
       <c r="BA68" s="9"/>
@@ -12835,7 +12992,7 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -12843,10 +13000,10 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -12856,31 +13013,31 @@
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="Y69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AB69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AC69" s="11" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
@@ -12922,13 +13079,13 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -12985,13 +13142,13 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -13054,7 +13211,7 @@
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
@@ -13107,13 +13264,13 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -13140,23 +13297,23 @@
       <c r="AK73" s="9"/>
       <c r="AL73" s="9"/>
       <c r="AM73" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
       <c r="AP73" s="9" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="AQ73" s="9" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AR73" s="9"/>
       <c r="AS73" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT73" s="9"/>
       <c r="AU73" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV73" s="9"/>
       <c r="AW73" s="9"/>
@@ -13164,7 +13321,7 @@
       <c r="AY73" s="9"/>
       <c r="AZ73" s="9"/>
       <c r="BA73" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13188,7 +13345,7 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
@@ -13233,7 +13390,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -13291,7 +13448,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -13371,22 +13528,22 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AA77" s="9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AB77" s="9" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
@@ -13407,7 +13564,7 @@
       <c r="AT77" s="9"/>
       <c r="AU77" s="9"/>
       <c r="AV77" s="9" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
@@ -13430,13 +13587,13 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -13463,21 +13620,21 @@
       <c r="AK78" s="9"/>
       <c r="AL78" s="9"/>
       <c r="AM78" s="9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
       <c r="AQ78" s="9" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="AR78" s="9"/>
       <c r="AS78" s="9" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AT78" s="9"/>
       <c r="AU78" s="9" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AV78" s="9"/>
       <c r="AW78" s="9"/>
@@ -13485,7 +13642,7 @@
       <c r="AY78" s="9"/>
       <c r="AZ78" s="9"/>
       <c r="BA78" s="9" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13495,7 +13652,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -13553,7 +13710,7 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -13632,7 +13789,7 @@
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -13671,7 +13828,7 @@
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -13746,16 +13903,16 @@
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="T83" s="9" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -13784,13 +13941,13 @@
       <c r="AU83" s="9"/>
       <c r="AV83" s="9"/>
       <c r="AW83" s="9" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AX83" s="9" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="AY83" s="9" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="AZ83" s="9"/>
       <c r="BA83" s="9"/>
@@ -13810,13 +13967,13 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -13873,13 +14030,13 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -13936,13 +14093,13 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -13969,21 +14126,21 @@
       <c r="AK86" s="9"/>
       <c r="AL86" s="9"/>
       <c r="AM86" s="9" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AR86" s="9"/>
       <c r="AS86" s="9" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AT86" s="9"/>
       <c r="AU86" s="9" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="AV86" s="9"/>
       <c r="AW86" s="9"/>
@@ -13991,7 +14148,7 @@
       <c r="AY86" s="9"/>
       <c r="AZ86" s="9"/>
       <c r="BA86" s="9" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,7 +14172,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -14071,7 +14228,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
@@ -14120,20 +14277,20 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -14155,26 +14312,26 @@
       <c r="AD89" s="9"/>
       <c r="AE89" s="9"/>
       <c r="AF89" s="9" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="AG89" s="9" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="AH89" s="9" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="AI89" s="9" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="AJ89" s="9"/>
       <c r="AK89" s="9" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="AL89" s="9" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="AM89" s="9" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
@@ -14210,7 +14367,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
@@ -14258,26 +14415,26 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
@@ -14324,7 +14481,7 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -14332,10 +14489,10 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
@@ -14344,38 +14501,38 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="U92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="V92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="W92" s="11"/>
       <c r="X92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="Z92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="AA92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="AB92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="AC92" s="11" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
@@ -14410,26 +14567,26 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
@@ -14476,7 +14633,7 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -14484,10 +14641,10 @@
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
@@ -14496,34 +14653,34 @@
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="Y94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="Z94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AA94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AB94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AC94" s="11" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
@@ -14558,26 +14715,26 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
